--- a/e2e_test_output_basic_1week_integration/simulation_output/module6/Module6Output_20240102.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module6/Module6Output_20240102.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="45">
   <si>
     <t>vehicle_uid</t>
   </si>
@@ -72,52 +72,49 @@
     <t>20240102-PLANT_001-DC_002-MEDIUM-#2</t>
   </si>
   <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000017</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-03|net demand for forecast|000024</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000005</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000014</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000018</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000025</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000019</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000026</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-01|net demand for safety|000006</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000020</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000009</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000021</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000022</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-01|net demand for safety|000010</t>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-03|net demand for forecast|000017</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000022</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000010</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000018</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000023</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000019</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000024</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-01|net demand for safety|000006</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000025</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000014</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000026</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000027</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-01|net demand for safety|000015</t>
+  </si>
+  <si>
+    <t>MAT_B</t>
   </si>
   <si>
     <t>MAT_A</t>
-  </si>
-  <si>
-    <t>MAT_B</t>
   </si>
   <si>
     <t>PLANT_001</t>
@@ -518,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -573,13 +570,13 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
         <v>33</v>
-      </c>
-      <c r="E2" t="s">
-        <v>34</v>
       </c>
       <c r="F2" s="2">
         <v>45294</v>
@@ -591,19 +588,19 @@
         <v>45295</v>
       </c>
       <c r="I2">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="J2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="M2">
-        <v>0.9575</v>
+        <v>0.9675</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -614,13 +611,13 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
         <v>33</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
       </c>
       <c r="F3" s="2">
         <v>45294</v>
@@ -632,19 +629,19 @@
         <v>45295</v>
       </c>
       <c r="I3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="M3">
-        <v>0.9575</v>
+        <v>0.9675</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -658,11 +655,11 @@
         <v>31</v>
       </c>
       <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
         <v>33</v>
       </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
       <c r="F4" s="2">
         <v>45295</v>
       </c>
@@ -673,19 +670,19 @@
         <v>45295</v>
       </c>
       <c r="I4">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="J4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="M4">
-        <v>0.9575</v>
+        <v>0.9675</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -696,14 +693,14 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
         <v>33</v>
       </c>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
       <c r="F5" s="2">
         <v>45295</v>
       </c>
@@ -714,37 +711,37 @@
         <v>45295</v>
       </c>
       <c r="I5">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="M5">
-        <v>0.9575</v>
+        <v>0.9675</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
         <v>33</v>
       </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
       <c r="F6" s="2">
         <v>45295</v>
       </c>
@@ -755,10 +752,10 @@
         <v>45295</v>
       </c>
       <c r="I6">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="J6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -767,25 +764,25 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.9575</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
         <v>33</v>
       </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
       <c r="F7" s="2">
         <v>45295</v>
       </c>
@@ -796,10 +793,10 @@
         <v>45295</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -808,7 +805,7 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9575</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -819,16 +816,16 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
         <v>33</v>
       </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
       <c r="F8" s="2">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="G8" s="2">
         <v>45293</v>
@@ -837,11 +834,11 @@
         <v>45295</v>
       </c>
       <c r="I8">
+        <v>40</v>
+      </c>
+      <c r="J8" t="s">
         <v>35</v>
       </c>
-      <c r="J8" t="s">
-        <v>36</v>
-      </c>
       <c r="K8">
         <v>1</v>
       </c>
@@ -849,7 +846,7 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.9625</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -863,10 +860,10 @@
         <v>31</v>
       </c>
       <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
         <v>33</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
       </c>
       <c r="F9" s="2">
         <v>45296</v>
@@ -878,10 +875,10 @@
         <v>45295</v>
       </c>
       <c r="I9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -890,7 +887,7 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.9625</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -901,16 +898,16 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
         <v>33</v>
       </c>
-      <c r="E10" t="s">
-        <v>34</v>
-      </c>
       <c r="F10" s="2">
-        <v>45296</v>
+        <v>45292</v>
       </c>
       <c r="G10" s="2">
         <v>45293</v>
@@ -919,10 +916,10 @@
         <v>45295</v>
       </c>
       <c r="I10">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="J10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -931,12 +928,12 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.9625</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -945,13 +942,13 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
         <v>34</v>
       </c>
       <c r="F11" s="2">
-        <v>45292</v>
+        <v>45294</v>
       </c>
       <c r="G11" s="2">
         <v>45293</v>
@@ -960,7 +957,7 @@
         <v>45296</v>
       </c>
       <c r="I11">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="J11" t="s">
         <v>36</v>
@@ -972,7 +969,7 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.9625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -986,13 +983,13 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="G12" s="2">
         <v>45293</v>
@@ -1001,10 +998,10 @@
         <v>45295</v>
       </c>
       <c r="I12">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="J12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1027,10 +1024,10 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F13" s="2">
         <v>45295</v>
@@ -1042,10 +1039,10 @@
         <v>45295</v>
       </c>
       <c r="I13">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1068,13 +1065,13 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F14" s="2">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="G14" s="2">
         <v>45293</v>
@@ -1083,10 +1080,10 @@
         <v>45296</v>
       </c>
       <c r="I14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1100,7 +1097,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -1109,13 +1106,13 @@
         <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F15" s="2">
-        <v>45296</v>
+        <v>45292</v>
       </c>
       <c r="G15" s="2">
         <v>45293</v>
@@ -1124,101 +1121,19 @@
         <v>45295</v>
       </c>
       <c r="I15">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="J15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="M15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="2">
-        <v>45292</v>
-      </c>
-      <c r="G16" s="2">
-        <v>45293</v>
-      </c>
-      <c r="H16" s="2">
-        <v>45295</v>
-      </c>
-      <c r="I16">
-        <v>3</v>
-      </c>
-      <c r="J16" t="s">
-        <v>37</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="2">
-        <v>45292</v>
-      </c>
-      <c r="G17" s="2">
-        <v>45293</v>
-      </c>
-      <c r="H17" s="2">
-        <v>45295</v>
-      </c>
-      <c r="I17">
-        <v>39</v>
-      </c>
-      <c r="J17" t="s">
-        <v>37</v>
-      </c>
-      <c r="K17">
-        <v>0.65</v>
-      </c>
-      <c r="L17">
-        <v>0.65</v>
-      </c>
-      <c r="M17">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
@@ -1236,7 +1151,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -1248,19 +1163,19 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
@@ -1269,7 +1184,7 @@
         <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1277,13 +1192,13 @@
         <v>45293</v>
       </c>
       <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1292,22 +1207,22 @@
         <v>13</v>
       </c>
       <c r="G2">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="I2">
-        <v>191.5</v>
+        <v>193.5</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="K2">
-        <v>0.9575</v>
+        <v>0.9675</v>
       </c>
       <c r="L2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1315,13 +1230,13 @@
         <v>45293</v>
       </c>
       <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
         <v>33</v>
       </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1330,22 +1245,22 @@
         <v>14</v>
       </c>
       <c r="G3">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H3">
         <v>100</v>
       </c>
       <c r="I3">
-        <v>192.5</v>
+        <v>190</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3">
-        <v>0.9625</v>
+        <v>0.95</v>
       </c>
       <c r="L3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1353,13 +1268,13 @@
         <v>45293</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1383,7 +1298,7 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1391,13 +1306,13 @@
         <v>45293</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -1406,22 +1321,22 @@
         <v>16</v>
       </c>
       <c r="G5">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H5">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I5">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="J5">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="K5">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="L5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1439,7 +1354,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -1451,7 +1366,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1459,13 +1374,13 @@
         <v>45293</v>
       </c>
       <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -1476,13 +1391,13 @@
         <v>45293</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3">
         <v>2</v>

--- a/e2e_test_output_basic_1week_integration/simulation_output/module6/Module6Output_20240102.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module6/Module6Output_20240102.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="40">
   <si>
     <t>vehicle_uid</t>
   </si>
@@ -75,40 +75,25 @@
     <t>MAT_B|PLANT_001|DC_001|2024-01-03|net demand for forecast|000017</t>
   </si>
   <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000022</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000010</t>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000009</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000014</t>
   </si>
   <si>
     <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000018</t>
   </si>
   <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000023</t>
-  </si>
-  <si>
     <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000019</t>
   </si>
   <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000024</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-01|net demand for safety|000006</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000025</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000014</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000026</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000027</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-01|net demand for safety|000015</t>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-01|net demand for safety|000010</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000005</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-01|net demand for safety|000006</t>
   </si>
   <si>
     <t>MAT_B</t>
@@ -515,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -570,13 +555,13 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2">
         <v>45294</v>
@@ -591,16 +576,16 @@
         <v>40</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K2">
-        <v>0.9940000000000001</v>
+        <v>0.996</v>
       </c>
       <c r="L2">
-        <v>0.9940000000000001</v>
+        <v>0.996</v>
       </c>
       <c r="M2">
-        <v>0.9675</v>
+        <v>0.9425</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -611,16 +596,16 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F3" s="2">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="G3" s="2">
         <v>45293</v>
@@ -629,19 +614,19 @@
         <v>45295</v>
       </c>
       <c r="I3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K3">
-        <v>0.9940000000000001</v>
+        <v>0.996</v>
       </c>
       <c r="L3">
-        <v>0.9940000000000001</v>
+        <v>0.996</v>
       </c>
       <c r="M3">
-        <v>0.9675</v>
+        <v>0.9425</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -652,13 +637,13 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2">
         <v>45295</v>
@@ -670,19 +655,19 @@
         <v>45295</v>
       </c>
       <c r="I4">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="J4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K4">
-        <v>0.9940000000000001</v>
+        <v>0.996</v>
       </c>
       <c r="L4">
-        <v>0.9940000000000001</v>
+        <v>0.996</v>
       </c>
       <c r="M4">
-        <v>0.9675</v>
+        <v>0.9425</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -693,37 +678,37 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="2">
+        <v>45295</v>
+      </c>
+      <c r="G5" s="2">
+        <v>45293</v>
+      </c>
+      <c r="H5" s="2">
+        <v>45295</v>
+      </c>
+      <c r="I5">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="2">
-        <v>45295</v>
-      </c>
-      <c r="G5" s="2">
-        <v>45293</v>
-      </c>
-      <c r="H5" s="2">
-        <v>45295</v>
-      </c>
-      <c r="I5">
-        <v>13</v>
-      </c>
-      <c r="J5" t="s">
-        <v>35</v>
-      </c>
       <c r="K5">
-        <v>0.9940000000000001</v>
+        <v>0.996</v>
       </c>
       <c r="L5">
-        <v>0.9940000000000001</v>
+        <v>0.996</v>
       </c>
       <c r="M5">
-        <v>0.9675</v>
+        <v>0.9425</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -734,37 +719,37 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="2">
+        <v>45295</v>
+      </c>
+      <c r="G6" s="2">
+        <v>45293</v>
+      </c>
+      <c r="H6" s="2">
+        <v>45295</v>
+      </c>
+      <c r="I6">
+        <v>13</v>
+      </c>
+      <c r="J6" t="s">
         <v>30</v>
       </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="2">
-        <v>45295</v>
-      </c>
-      <c r="G6" s="2">
-        <v>45293</v>
-      </c>
-      <c r="H6" s="2">
-        <v>45295</v>
-      </c>
-      <c r="I6">
-        <v>27</v>
-      </c>
-      <c r="J6" t="s">
-        <v>35</v>
-      </c>
       <c r="K6">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="M6">
-        <v>0.95</v>
+        <v>0.9675</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -775,16 +760,16 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F7" s="2">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="G7" s="2">
         <v>45293</v>
@@ -793,19 +778,19 @@
         <v>45295</v>
       </c>
       <c r="I7">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="J7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="M7">
-        <v>0.95</v>
+        <v>0.9675</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -816,69 +801,69 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="2">
+        <v>45292</v>
+      </c>
+      <c r="G8" s="2">
+        <v>45293</v>
+      </c>
+      <c r="H8" s="2">
+        <v>45295</v>
+      </c>
+      <c r="I8">
+        <v>57</v>
+      </c>
+      <c r="J8" t="s">
         <v>30</v>
       </c>
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="2">
-        <v>45296</v>
-      </c>
-      <c r="G8" s="2">
-        <v>45293</v>
-      </c>
-      <c r="H8" s="2">
-        <v>45295</v>
-      </c>
-      <c r="I8">
-        <v>40</v>
-      </c>
-      <c r="J8" t="s">
-        <v>35</v>
-      </c>
       <c r="K8">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="M8">
-        <v>0.95</v>
+        <v>0.9675</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
       </c>
       <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="2">
+        <v>45295</v>
+      </c>
+      <c r="G9" s="2">
+        <v>45293</v>
+      </c>
+      <c r="H9" s="2">
+        <v>45295</v>
+      </c>
+      <c r="I9">
+        <v>30</v>
+      </c>
+      <c r="J9" t="s">
         <v>31</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="2">
-        <v>45296</v>
-      </c>
-      <c r="G9" s="2">
-        <v>45293</v>
-      </c>
-      <c r="H9" s="2">
-        <v>45295</v>
-      </c>
-      <c r="I9">
-        <v>10</v>
-      </c>
-      <c r="J9" t="s">
-        <v>35</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -887,24 +872,24 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2">
         <v>45292</v>
@@ -916,10 +901,10 @@
         <v>45295</v>
       </c>
       <c r="I10">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -928,27 +913,27 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F11" s="2">
-        <v>45294</v>
+        <v>45292</v>
       </c>
       <c r="G11" s="2">
         <v>45293</v>
@@ -957,183 +942,19 @@
         <v>45296</v>
       </c>
       <c r="I11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="M11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="2">
-        <v>45295</v>
-      </c>
-      <c r="G12" s="2">
-        <v>45293</v>
-      </c>
-      <c r="H12" s="2">
-        <v>45295</v>
-      </c>
-      <c r="I12">
-        <v>30</v>
-      </c>
-      <c r="J12" t="s">
-        <v>36</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="2">
-        <v>45295</v>
-      </c>
-      <c r="G13" s="2">
-        <v>45293</v>
-      </c>
-      <c r="H13" s="2">
-        <v>45295</v>
-      </c>
-      <c r="I13">
-        <v>10</v>
-      </c>
-      <c r="J13" t="s">
-        <v>36</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="2">
-        <v>45296</v>
-      </c>
-      <c r="G14" s="2">
-        <v>45293</v>
-      </c>
-      <c r="H14" s="2">
-        <v>45296</v>
-      </c>
-      <c r="I14">
-        <v>10</v>
-      </c>
-      <c r="J14" t="s">
-        <v>36</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="2">
-        <v>45292</v>
-      </c>
-      <c r="G15" s="2">
-        <v>45293</v>
-      </c>
-      <c r="H15" s="2">
-        <v>45295</v>
-      </c>
-      <c r="I15">
-        <v>42</v>
-      </c>
-      <c r="J15" t="s">
-        <v>36</v>
-      </c>
-      <c r="K15">
-        <v>0.7</v>
-      </c>
-      <c r="L15">
-        <v>0.7</v>
-      </c>
-      <c r="M15">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -1151,7 +972,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -1163,19 +984,19 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
@@ -1184,7 +1005,7 @@
         <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1192,13 +1013,13 @@
         <v>45293</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1207,22 +1028,22 @@
         <v>13</v>
       </c>
       <c r="G2">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="H2">
-        <v>99.40000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="I2">
-        <v>193.5</v>
+        <v>188.5</v>
       </c>
       <c r="J2">
-        <v>0.9940000000000001</v>
+        <v>0.996</v>
       </c>
       <c r="K2">
-        <v>0.9675</v>
+        <v>0.9425</v>
       </c>
       <c r="L2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1230,13 +1051,13 @@
         <v>45293</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1245,22 +1066,22 @@
         <v>14</v>
       </c>
       <c r="G3">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="H3">
-        <v>100</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="I3">
-        <v>190</v>
+        <v>193.5</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="K3">
-        <v>0.95</v>
+        <v>0.9675</v>
       </c>
       <c r="L3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1268,13 +1089,13 @@
         <v>45293</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1298,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1306,13 +1127,13 @@
         <v>45293</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -1321,22 +1142,22 @@
         <v>16</v>
       </c>
       <c r="G5">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="H5">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I5">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="J5">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="K5">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="L5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1354,7 +1175,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -1366,7 +1187,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1374,13 +1195,13 @@
         <v>45293</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -1391,13 +1212,13 @@
         <v>45293</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>2</v>

--- a/e2e_test_output_basic_1week_integration/simulation_output/module6/Module6Output_20240102.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module6/Module6Output_20240102.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="43">
   <si>
     <t>vehicle_uid</t>
   </si>
@@ -72,28 +72,37 @@
     <t>20240102-PLANT_001-DC_002-MEDIUM-#2</t>
   </si>
   <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-03|net demand for forecast|000017</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000009</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000014</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000018</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000019</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-01|net demand for safety|000010</t>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-03|net demand for forecast|000023</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000016</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000024</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000011</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000017</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000025</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-06|net demand for forecast|000012</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-06|net demand for forecast|000018</t>
   </si>
   <si>
     <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000005</t>
   </si>
   <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-01|net demand for safety|000006</t>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000006</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000007</t>
   </si>
   <si>
     <t>MAT_B</t>
@@ -500,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -555,13 +564,13 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2">
         <v>45294</v>
@@ -573,19 +582,19 @@
         <v>45295</v>
       </c>
       <c r="I2">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K2">
-        <v>0.996</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="L2">
-        <v>0.996</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="M2">
-        <v>0.9425</v>
+        <v>0.9575</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -596,13 +605,13 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F3" s="2">
         <v>45295</v>
@@ -614,19 +623,19 @@
         <v>45295</v>
       </c>
       <c r="I3">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="J3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K3">
-        <v>0.996</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="L3">
-        <v>0.996</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="M3">
-        <v>0.9425</v>
+        <v>0.9575</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -637,13 +646,13 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F4" s="2">
         <v>45295</v>
@@ -655,19 +664,19 @@
         <v>45295</v>
       </c>
       <c r="I4">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K4">
-        <v>0.996</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="L4">
-        <v>0.996</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="M4">
-        <v>0.9425</v>
+        <v>0.9575</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -678,16 +687,16 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F5" s="2">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="G5" s="2">
         <v>45293</v>
@@ -696,39 +705,39 @@
         <v>45295</v>
       </c>
       <c r="I5">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="J5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K5">
-        <v>0.996</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="L5">
-        <v>0.996</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="M5">
-        <v>0.9425</v>
+        <v>0.9575</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F6" s="2">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="G6" s="2">
         <v>45293</v>
@@ -737,10 +746,10 @@
         <v>45295</v>
       </c>
       <c r="I6">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K6">
         <v>0.9940000000000001</v>
@@ -749,7 +758,7 @@
         <v>0.9940000000000001</v>
       </c>
       <c r="M6">
-        <v>0.9675</v>
+        <v>0.9575</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -760,13 +769,13 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F7" s="2">
         <v>45296</v>
@@ -778,10 +787,10 @@
         <v>45295</v>
       </c>
       <c r="I7">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="J7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K7">
         <v>0.9940000000000001</v>
@@ -790,7 +799,7 @@
         <v>0.9940000000000001</v>
       </c>
       <c r="M7">
-        <v>0.9675</v>
+        <v>0.9575</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -801,16 +810,16 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F8" s="2">
-        <v>45292</v>
+        <v>45296</v>
       </c>
       <c r="G8" s="2">
         <v>45293</v>
@@ -819,10 +828,10 @@
         <v>45295</v>
       </c>
       <c r="I8">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="J8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K8">
         <v>0.9940000000000001</v>
@@ -831,27 +840,27 @@
         <v>0.9940000000000001</v>
       </c>
       <c r="M8">
-        <v>0.9675</v>
+        <v>0.9575</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F9" s="2">
-        <v>45295</v>
+        <v>45297</v>
       </c>
       <c r="G9" s="2">
         <v>45293</v>
@@ -860,39 +869,39 @@
         <v>45295</v>
       </c>
       <c r="I9">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="J9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>0.9575</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F10" s="2">
-        <v>45292</v>
+        <v>45297</v>
       </c>
       <c r="G10" s="2">
         <v>45293</v>
@@ -901,39 +910,39 @@
         <v>45295</v>
       </c>
       <c r="I10">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="J10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0.9575</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2">
-        <v>45292</v>
+        <v>45295</v>
       </c>
       <c r="G11" s="2">
         <v>45293</v>
@@ -942,19 +951,142 @@
         <v>45296</v>
       </c>
       <c r="I11">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K11">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="2">
+        <v>45296</v>
+      </c>
+      <c r="G12" s="2">
+        <v>45293</v>
+      </c>
+      <c r="H12" s="2">
+        <v>45295</v>
+      </c>
+      <c r="I12">
+        <v>41</v>
+      </c>
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="2">
+        <v>45297</v>
+      </c>
+      <c r="G13" s="2">
+        <v>45293</v>
+      </c>
+      <c r="H13" s="2">
+        <v>45295</v>
+      </c>
+      <c r="I13">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="2">
+        <v>45297</v>
+      </c>
+      <c r="G14" s="2">
+        <v>45293</v>
+      </c>
+      <c r="H14" s="2">
+        <v>45296</v>
+      </c>
+      <c r="I14">
+        <v>25</v>
+      </c>
+      <c r="J14" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="L14">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="M14">
+        <v>0.4166666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -972,7 +1104,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -984,19 +1116,19 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
@@ -1005,7 +1137,7 @@
         <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1013,13 +1145,13 @@
         <v>45293</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1028,22 +1160,22 @@
         <v>13</v>
       </c>
       <c r="G2">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="H2">
-        <v>99.59999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="I2">
-        <v>188.5</v>
+        <v>191.5</v>
       </c>
       <c r="J2">
-        <v>0.996</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="K2">
-        <v>0.9425</v>
+        <v>0.9575</v>
       </c>
       <c r="L2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1051,13 +1183,13 @@
         <v>45293</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1066,22 +1198,22 @@
         <v>14</v>
       </c>
       <c r="G3">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="H3">
         <v>99.40000000000001</v>
       </c>
       <c r="I3">
-        <v>193.5</v>
+        <v>191.5</v>
       </c>
       <c r="J3">
         <v>0.9940000000000001</v>
       </c>
       <c r="K3">
-        <v>0.9675</v>
+        <v>0.9575</v>
       </c>
       <c r="L3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1089,13 +1221,13 @@
         <v>45293</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1119,7 +1251,7 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1127,13 +1259,13 @@
         <v>45293</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -1142,22 +1274,22 @@
         <v>16</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="H5">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I5">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="J5">
-        <v>0.2</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="K5">
-        <v>0.2</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="L5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1175,7 +1307,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -1187,7 +1319,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1195,13 +1327,13 @@
         <v>45293</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -1212,13 +1344,13 @@
         <v>45293</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E3">
         <v>2</v>

--- a/e2e_test_output_basic_1week_integration/simulation_output/module6/Module6Output_20240102.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module6/Module6Output_20240102.xlsx
@@ -81,7 +81,7 @@
     <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000024</t>
   </si>
   <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000011</t>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000006</t>
   </si>
   <si>
     <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000017</t>
@@ -90,19 +90,19 @@
     <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000025</t>
   </si>
   <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-06|net demand for forecast|000012</t>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-06|net demand for forecast|000007</t>
   </si>
   <si>
     <t>MAT_B|PLANT_001|DC_001|2024-01-06|net demand for forecast|000018</t>
   </si>
   <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000005</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000006</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000007</t>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000010</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000011</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000012</t>
   </si>
   <si>
     <t>MAT_B</t>

--- a/e2e_test_output_basic_1week_integration/simulation_output/module6/Module6Output_20240102.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module6/Module6Output_20240102.xlsx
@@ -81,7 +81,7 @@
     <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000024</t>
   </si>
   <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000006</t>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000011</t>
   </si>
   <si>
     <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000017</t>
@@ -90,19 +90,19 @@
     <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000025</t>
   </si>
   <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-06|net demand for forecast|000007</t>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-06|net demand for forecast|000012</t>
   </si>
   <si>
     <t>MAT_B|PLANT_001|DC_001|2024-01-06|net demand for forecast|000018</t>
   </si>
   <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000010</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000011</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000012</t>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000005</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000006</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000007</t>
   </si>
   <si>
     <t>MAT_B</t>

--- a/e2e_test_output_basic_1week_integration/simulation_output/module6/Module6Output_20240102.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module6/Module6Output_20240102.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="61">
   <si>
     <t>vehicle_uid</t>
   </si>
@@ -72,37 +72,43 @@
     <t>20240102-PLANT_001-DC_002-MEDIUM-#2</t>
   </si>
   <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-03|net demand for forecast|000023</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000016</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000024</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000011</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000017</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000025</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-06|net demand for forecast|000012</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-06|net demand for forecast|000018</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000005</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000006</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000007</t>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-03|net demand for forecast|000026</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000017</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000027</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000012</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000018</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000028</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-06|net demand for forecast|000013</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-06|net demand for forecast|000019</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-06|net demand for forecast|000029</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-07|net demand for forecast|000020</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000006</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000007</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000008</t>
   </si>
   <si>
     <t>MAT_B</t>
@@ -148,6 +154,54 @@
   </si>
   <si>
     <t>truck_used</t>
+  </si>
+  <si>
+    <t>sheet</t>
+  </si>
+  <si>
+    <t>row</t>
+  </si>
+  <si>
+    <t>issue</t>
+  </si>
+  <si>
+    <t>severity</t>
+  </si>
+  <si>
+    <t>impact</t>
+  </si>
+  <si>
+    <t>missing_element</t>
+  </si>
+  <si>
+    <t>affected_records</t>
+  </si>
+  <si>
+    <t>route_breakdown</t>
+  </si>
+  <si>
+    <t>Global_DemandPriority</t>
+  </si>
+  <si>
+    <t>Missing priority configuration for demand_element "net demand for AO" (affects 1 records: cross_node: 1). Records will be filtered out and not processed.</t>
+  </si>
+  <si>
+    <t>Missing priority configuration for demand_element "net demand for normal" (affects 1 records: cross_node: 1). Records will be filtered out and not processed.</t>
+  </si>
+  <si>
+    <t>ERROR</t>
+  </si>
+  <si>
+    <t>Data Loss - 1 deployment plans excluded</t>
+  </si>
+  <si>
+    <t>net demand for AO</t>
+  </si>
+  <si>
+    <t>net demand for normal</t>
+  </si>
+  <si>
+    <t>cross_node: 1</t>
   </si>
 </sst>
 </file>
@@ -509,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,13 +618,13 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F2" s="2">
         <v>45294</v>
@@ -582,10 +636,10 @@
         <v>45295</v>
       </c>
       <c r="I2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K2">
         <v>0.9940000000000001</v>
@@ -605,13 +659,13 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F3" s="2">
         <v>45295</v>
@@ -626,7 +680,7 @@
         <v>24</v>
       </c>
       <c r="J3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K3">
         <v>0.9940000000000001</v>
@@ -646,13 +700,13 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F4" s="2">
         <v>45295</v>
@@ -664,10 +718,10 @@
         <v>45295</v>
       </c>
       <c r="I4">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K4">
         <v>0.9940000000000001</v>
@@ -687,13 +741,13 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F5" s="2">
         <v>45296</v>
@@ -708,7 +762,7 @@
         <v>41</v>
       </c>
       <c r="J5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K5">
         <v>0.9940000000000001</v>
@@ -728,13 +782,13 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F6" s="2">
         <v>45296</v>
@@ -746,10 +800,10 @@
         <v>45295</v>
       </c>
       <c r="I6">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="J6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K6">
         <v>0.9940000000000001</v>
@@ -769,13 +823,13 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F7" s="2">
         <v>45296</v>
@@ -787,10 +841,10 @@
         <v>45295</v>
       </c>
       <c r="I7">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K7">
         <v>0.9940000000000001</v>
@@ -810,13 +864,13 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F8" s="2">
         <v>45296</v>
@@ -828,10 +882,10 @@
         <v>45295</v>
       </c>
       <c r="I8">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K8">
         <v>0.9940000000000001</v>
@@ -851,13 +905,13 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F9" s="2">
         <v>45297</v>
@@ -872,7 +926,7 @@
         <v>41</v>
       </c>
       <c r="J9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K9">
         <v>0.9940000000000001</v>
@@ -892,13 +946,13 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F10" s="2">
         <v>45297</v>
@@ -910,10 +964,10 @@
         <v>45295</v>
       </c>
       <c r="I10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K10">
         <v>0.9940000000000001</v>
@@ -927,22 +981,22 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F11" s="2">
-        <v>45295</v>
+        <v>45297</v>
       </c>
       <c r="G11" s="2">
         <v>45293</v>
@@ -951,39 +1005,39 @@
         <v>45296</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>0.9575</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2">
-        <v>45296</v>
+        <v>45298</v>
       </c>
       <c r="G12" s="2">
         <v>45293</v>
@@ -992,19 +1046,19 @@
         <v>45295</v>
       </c>
       <c r="I12">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="J12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>0.9575</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1015,16 +1069,16 @@
         <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F13" s="2">
-        <v>45297</v>
+        <v>45295</v>
       </c>
       <c r="G13" s="2">
         <v>45293</v>
@@ -1033,10 +1087,10 @@
         <v>45295</v>
       </c>
       <c r="I13">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="J13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1050,22 +1104,22 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F14" s="2">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="G14" s="2">
         <v>45293</v>
@@ -1074,18 +1128,100 @@
         <v>45296</v>
       </c>
       <c r="I14">
+        <v>41</v>
+      </c>
+      <c r="J14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="2">
+        <v>45297</v>
+      </c>
+      <c r="G15" s="2">
+        <v>45293</v>
+      </c>
+      <c r="H15" s="2">
+        <v>45295</v>
+      </c>
+      <c r="I15">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="2">
+        <v>45297</v>
+      </c>
+      <c r="G16" s="2">
+        <v>45293</v>
+      </c>
+      <c r="H16" s="2">
+        <v>45295</v>
+      </c>
+      <c r="I16">
         <v>25</v>
       </c>
-      <c r="J14" t="s">
-        <v>34</v>
-      </c>
-      <c r="K14">
+      <c r="J16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16">
         <v>0.4166666666666667</v>
       </c>
-      <c r="L14">
+      <c r="L16">
         <v>0.4166666666666667</v>
       </c>
-      <c r="M14">
+      <c r="M16">
         <v>0.4166666666666667</v>
       </c>
     </row>
@@ -1104,7 +1240,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -1116,19 +1252,19 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
@@ -1137,7 +1273,7 @@
         <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1145,13 +1281,13 @@
         <v>45293</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1175,7 +1311,7 @@
         <v>0.9575</v>
       </c>
       <c r="L2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1183,13 +1319,13 @@
         <v>45293</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1213,7 +1349,7 @@
         <v>0.9575</v>
       </c>
       <c r="L3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1221,13 +1357,13 @@
         <v>45293</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1251,7 +1387,7 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1259,13 +1395,13 @@
         <v>45293</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -1289,7 +1425,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="L5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1307,7 +1443,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -1319,7 +1455,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1327,13 +1463,13 @@
         <v>45293</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -1344,13 +1480,13 @@
         <v>45293</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1375,12 +1511,85 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/e2e_test_output_basic_1week_integration/simulation_output/module6/Module6Output_20240102.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module6/Module6Output_20240102.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="59">
   <si>
     <t>vehicle_uid</t>
   </si>
@@ -72,43 +72,37 @@
     <t>20240102-PLANT_001-DC_002-MEDIUM-#2</t>
   </si>
   <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-03|net demand for forecast|000026</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000017</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000027</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000012</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000018</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000028</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-06|net demand for forecast|000013</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-06|net demand for forecast|000019</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-06|net demand for forecast|000029</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-07|net demand for forecast|000020</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000006</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000007</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000008</t>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-03|net demand for forecast|000021</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000006</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000015</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000022</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000007</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000016</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000023</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-06|net demand for forecast|000024</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-01|net demand for safety|000017</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000010</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000011</t>
   </si>
   <si>
     <t>MAT_B</t>
@@ -563,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -618,13 +612,13 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2">
         <v>45294</v>
@@ -636,19 +630,19 @@
         <v>45295</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K2">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9575</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -659,13 +653,13 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F3" s="2">
         <v>45295</v>
@@ -677,19 +671,19 @@
         <v>45295</v>
       </c>
       <c r="I3">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K3">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.9575</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -700,13 +694,13 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F4" s="2">
         <v>45295</v>
@@ -718,19 +712,19 @@
         <v>45295</v>
       </c>
       <c r="I4">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="J4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K4">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9575</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -741,16 +735,16 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
         <v>31</v>
       </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
       <c r="F5" s="2">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="G5" s="2">
         <v>45293</v>
@@ -759,19 +753,19 @@
         <v>45295</v>
       </c>
       <c r="I5">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="J5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K5">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9575</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -782,13 +776,13 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F6" s="2">
         <v>45296</v>
@@ -800,19 +794,19 @@
         <v>45295</v>
       </c>
       <c r="I6">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="J6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K6">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.9575</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -823,13 +817,13 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F7" s="2">
         <v>45296</v>
@@ -841,19 +835,19 @@
         <v>45295</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="J7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K7">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9575</v>
+        <v>0.955</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -864,13 +858,13 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F8" s="2">
         <v>45296</v>
@@ -882,19 +876,19 @@
         <v>45295</v>
       </c>
       <c r="I8">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="J8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K8">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.9575</v>
+        <v>0.955</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -905,16 +899,16 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
         <v>31</v>
       </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
       <c r="F9" s="2">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="G9" s="2">
         <v>45293</v>
@@ -923,19 +917,19 @@
         <v>45295</v>
       </c>
       <c r="I9">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="J9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K9">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.9575</v>
+        <v>0.955</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -946,13 +940,13 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F10" s="2">
         <v>45297</v>
@@ -964,19 +958,19 @@
         <v>45295</v>
       </c>
       <c r="I10">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K10">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.9575</v>
+        <v>0.955</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -987,16 +981,16 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2">
-        <v>45297</v>
+        <v>45292</v>
       </c>
       <c r="G11" s="2">
         <v>45293</v>
@@ -1005,39 +999,39 @@
         <v>45296</v>
       </c>
       <c r="I11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K11">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.9575</v>
+        <v>0.955</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
         <v>32</v>
       </c>
-      <c r="E12" t="s">
-        <v>33</v>
-      </c>
       <c r="F12" s="2">
-        <v>45298</v>
+        <v>45295</v>
       </c>
       <c r="G12" s="2">
         <v>45293</v>
@@ -1046,19 +1040,19 @@
         <v>45295</v>
       </c>
       <c r="I12">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K12">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9575</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1069,16 +1063,16 @@
         <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
         <v>32</v>
       </c>
-      <c r="E13" t="s">
-        <v>34</v>
-      </c>
       <c r="F13" s="2">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="G13" s="2">
         <v>45293</v>
@@ -1087,10 +1081,10 @@
         <v>45295</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="J13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1104,19 +1098,19 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" t="s">
         <v>32</v>
-      </c>
-      <c r="E14" t="s">
-        <v>34</v>
       </c>
       <c r="F14" s="2">
         <v>45296</v>
@@ -1128,101 +1122,19 @@
         <v>45296</v>
       </c>
       <c r="I14">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="J14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="2">
-        <v>45297</v>
-      </c>
-      <c r="G15" s="2">
-        <v>45293</v>
-      </c>
-      <c r="H15" s="2">
-        <v>45295</v>
-      </c>
-      <c r="I15">
-        <v>16</v>
-      </c>
-      <c r="J15" t="s">
-        <v>36</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="2">
-        <v>45297</v>
-      </c>
-      <c r="G16" s="2">
-        <v>45293</v>
-      </c>
-      <c r="H16" s="2">
-        <v>45295</v>
-      </c>
-      <c r="I16">
-        <v>25</v>
-      </c>
-      <c r="J16" t="s">
-        <v>36</v>
-      </c>
-      <c r="K16">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="L16">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="M16">
-        <v>0.4166666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -1240,7 +1152,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -1252,19 +1164,19 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
@@ -1273,7 +1185,7 @@
         <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1281,13 +1193,13 @@
         <v>45293</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
         <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>35</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1296,22 +1208,22 @@
         <v>13</v>
       </c>
       <c r="G2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H2">
-        <v>99.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="I2">
-        <v>191.5</v>
+        <v>192</v>
       </c>
       <c r="J2">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>0.9575</v>
+        <v>0.96</v>
       </c>
       <c r="L2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1319,13 +1231,13 @@
         <v>45293</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
         <v>33</v>
-      </c>
-      <c r="D3" t="s">
-        <v>35</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1334,22 +1246,22 @@
         <v>14</v>
       </c>
       <c r="G3">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H3">
-        <v>99.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="I3">
-        <v>191.5</v>
+        <v>191</v>
       </c>
       <c r="J3">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>0.9575</v>
+        <v>0.955</v>
       </c>
       <c r="L3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1357,13 +1269,13 @@
         <v>45293</v>
       </c>
       <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
         <v>32</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>34</v>
-      </c>
-      <c r="D4" t="s">
-        <v>36</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1387,7 +1299,7 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1395,13 +1307,13 @@
         <v>45293</v>
       </c>
       <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
         <v>32</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>34</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -1410,22 +1322,22 @@
         <v>16</v>
       </c>
       <c r="G5">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H5">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I5">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J5">
-        <v>0.4166666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K5">
-        <v>0.4166666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1443,7 +1355,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -1455,7 +1367,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1463,13 +1375,13 @@
         <v>45293</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
         <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>35</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -1480,13 +1392,13 @@
         <v>45293</v>
       </c>
       <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
         <v>32</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>34</v>
-      </c>
-      <c r="D3" t="s">
-        <v>36</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1519,74 +1431,74 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
         <v>54</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" t="s">
         <v>56</v>
       </c>
-      <c r="E2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
         <v>58</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
         <v>53</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" t="s">
         <v>55</v>
       </c>
-      <c r="D3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>57</v>
       </c>
-      <c r="F3" t="s">
-        <v>59</v>
-      </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_basic_1week_integration/simulation_output/module6/Module6Output_20240102.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module6/Module6Output_20240102.xlsx
@@ -75,34 +75,34 @@
     <t>MAT_B|PLANT_001|DC_001|2024-01-03|net demand for forecast|000021</t>
   </si>
   <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000006</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000015</t>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000026</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000014</t>
   </si>
   <si>
     <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000022</t>
   </si>
   <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000007</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000016</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000023</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-06|net demand for forecast|000024</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-01|net demand for safety|000017</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000010</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000011</t>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000027</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000007</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000015</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000030</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000018</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000031</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000019</t>
   </si>
   <si>
     <t>MAT_B</t>
@@ -630,7 +630,7 @@
         <v>45295</v>
       </c>
       <c r="I2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J2" t="s">
         <v>33</v>
@@ -642,7 +642,7 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.96</v>
+        <v>0.9875</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -662,7 +662,7 @@
         <v>31</v>
       </c>
       <c r="F3" s="2">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="G3" s="2">
         <v>45293</v>
@@ -671,7 +671,7 @@
         <v>45295</v>
       </c>
       <c r="I3">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="J3" t="s">
         <v>33</v>
@@ -683,7 +683,7 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.96</v>
+        <v>0.9875</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -694,7 +694,7 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>30</v>
@@ -712,7 +712,7 @@
         <v>45295</v>
       </c>
       <c r="I4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J4" t="s">
         <v>33</v>
@@ -724,18 +724,18 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.96</v>
+        <v>0.9875</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
         <v>30</v>
@@ -753,7 +753,7 @@
         <v>45295</v>
       </c>
       <c r="I5">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="J5" t="s">
         <v>33</v>
@@ -765,18 +765,18 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.96</v>
+        <v>0.9675</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
         <v>30</v>
@@ -785,7 +785,7 @@
         <v>31</v>
       </c>
       <c r="F6" s="2">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="G6" s="2">
         <v>45293</v>
@@ -794,7 +794,7 @@
         <v>45295</v>
       </c>
       <c r="I6">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J6" t="s">
         <v>33</v>
@@ -806,7 +806,7 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.96</v>
+        <v>0.9675</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -826,7 +826,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="2">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="G7" s="2">
         <v>45293</v>
@@ -835,7 +835,7 @@
         <v>45295</v>
       </c>
       <c r="I7">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="J7" t="s">
         <v>33</v>
@@ -847,7 +847,7 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.955</v>
+        <v>0.9675</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -888,7 +888,7 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.955</v>
+        <v>0.9675</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -899,7 +899,7 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
         <v>30</v>
@@ -917,7 +917,7 @@
         <v>45295</v>
       </c>
       <c r="I9">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J9" t="s">
         <v>33</v>
@@ -929,27 +929,27 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.955</v>
+        <v>0.9675</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
         <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F10" s="2">
-        <v>45297</v>
+        <v>45294</v>
       </c>
       <c r="G10" s="2">
         <v>45293</v>
@@ -958,10 +958,10 @@
         <v>45295</v>
       </c>
       <c r="I10">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="J10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -970,27 +970,27 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.955</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
         <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2">
-        <v>45292</v>
+        <v>45295</v>
       </c>
       <c r="G11" s="2">
         <v>45293</v>
@@ -999,10 +999,10 @@
         <v>45296</v>
       </c>
       <c r="I11">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="J11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1011,15 +1011,15 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.955</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>29</v>
@@ -1040,7 +1040,7 @@
         <v>45295</v>
       </c>
       <c r="I12">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="J12" t="s">
         <v>34</v>
@@ -1057,10 +1057,10 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
@@ -1072,7 +1072,7 @@
         <v>32</v>
       </c>
       <c r="F13" s="2">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="G13" s="2">
         <v>45293</v>
@@ -1081,7 +1081,7 @@
         <v>45295</v>
       </c>
       <c r="I13">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="J13" t="s">
         <v>34</v>
@@ -1122,19 +1122,19 @@
         <v>45296</v>
       </c>
       <c r="I14">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J14" t="s">
         <v>34</v>
       </c>
       <c r="K14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1208,19 +1208,19 @@
         <v>13</v>
       </c>
       <c r="G2">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="H2">
         <v>100</v>
       </c>
       <c r="I2">
-        <v>192</v>
+        <v>197.5</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2">
-        <v>0.96</v>
+        <v>0.9875</v>
       </c>
       <c r="L2" t="s">
         <v>41</v>
@@ -1246,19 +1246,19 @@
         <v>14</v>
       </c>
       <c r="G3">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H3">
         <v>100</v>
       </c>
       <c r="I3">
-        <v>191</v>
+        <v>193.5</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3">
-        <v>0.955</v>
+        <v>0.9675</v>
       </c>
       <c r="L3" t="s">
         <v>41</v>
@@ -1322,19 +1322,19 @@
         <v>16</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="H5">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="I5">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="J5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="L5" t="s">
         <v>41</v>

--- a/e2e_test_output_basic_1week_integration/simulation_output/module6/Module6Output_20240102.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module6/Module6Output_20240102.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="63">
   <si>
     <t>vehicle_uid</t>
   </si>
@@ -75,34 +75,46 @@
     <t>MAT_B|PLANT_001|DC_001|2024-01-03|net demand for forecast|000021</t>
   </si>
   <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000026</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000014</t>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000030</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000018</t>
   </si>
   <si>
     <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000022</t>
   </si>
   <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000027</t>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000031</t>
   </si>
   <si>
     <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000007</t>
   </si>
   <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000015</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000030</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000018</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000031</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000019</t>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000019</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000023</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000032</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000026</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000014</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000027</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000015</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000028</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000029</t>
   </si>
   <si>
     <t>MAT_B</t>
@@ -557,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -612,13 +624,13 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F2" s="2">
         <v>45294</v>
@@ -630,19 +642,19 @@
         <v>45295</v>
       </c>
       <c r="I2">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="M2">
-        <v>0.9875</v>
+        <v>0.9775</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -653,13 +665,13 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F3" s="2">
         <v>45294</v>
@@ -671,19 +683,19 @@
         <v>45295</v>
       </c>
       <c r="I3">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="M3">
-        <v>0.9875</v>
+        <v>0.9775</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -694,13 +706,13 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F4" s="2">
         <v>45295</v>
@@ -712,36 +724,36 @@
         <v>45295</v>
       </c>
       <c r="I4">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="M4">
-        <v>0.9875</v>
+        <v>0.9775</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F5" s="2">
         <v>45295</v>
@@ -753,36 +765,36 @@
         <v>45295</v>
       </c>
       <c r="I5">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="J5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="M5">
-        <v>0.9675</v>
+        <v>0.9775</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F6" s="2">
         <v>45295</v>
@@ -794,39 +806,39 @@
         <v>45295</v>
       </c>
       <c r="I6">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="M6">
-        <v>0.9675</v>
+        <v>0.9775</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F7" s="2">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="G7" s="2">
         <v>45293</v>
@@ -835,19 +847,19 @@
         <v>45295</v>
       </c>
       <c r="I7">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="M7">
-        <v>0.9675</v>
+        <v>0.9775</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -858,13 +870,13 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F8" s="2">
         <v>45296</v>
@@ -876,19 +888,19 @@
         <v>45295</v>
       </c>
       <c r="I8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="M8">
-        <v>0.9675</v>
+        <v>0.9625</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -899,13 +911,13 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F9" s="2">
         <v>45296</v>
@@ -917,39 +929,39 @@
         <v>45295</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="J9" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="M9">
-        <v>0.9675</v>
+        <v>0.9625</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F10" s="2">
-        <v>45294</v>
+        <v>45296</v>
       </c>
       <c r="G10" s="2">
         <v>45293</v>
@@ -958,39 +970,39 @@
         <v>45295</v>
       </c>
       <c r="I10">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="J10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0.9625</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F11" s="2">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="G11" s="2">
         <v>45293</v>
@@ -999,39 +1011,39 @@
         <v>45296</v>
       </c>
       <c r="I11">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>0.9625</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F12" s="2">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="G12" s="2">
         <v>45293</v>
@@ -1040,10 +1052,10 @@
         <v>45295</v>
       </c>
       <c r="I12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J12" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1057,34 +1069,34 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="2">
+        <v>45295</v>
+      </c>
+      <c r="G13" s="2">
+        <v>45293</v>
+      </c>
+      <c r="H13" s="2">
+        <v>45295</v>
+      </c>
+      <c r="I13">
         <v>30</v>
       </c>
-      <c r="E13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="2">
-        <v>45295</v>
-      </c>
-      <c r="G13" s="2">
-        <v>45293</v>
-      </c>
-      <c r="H13" s="2">
-        <v>45295</v>
-      </c>
-      <c r="I13">
-        <v>39</v>
-      </c>
       <c r="J13" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1098,22 +1110,22 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F14" s="2">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="G14" s="2">
         <v>45293</v>
@@ -1122,10 +1134,10 @@
         <v>45296</v>
       </c>
       <c r="I14">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J14" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1134,6 +1146,170 @@
         <v>1</v>
       </c>
       <c r="M14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="2">
+        <v>45296</v>
+      </c>
+      <c r="G15" s="2">
+        <v>45293</v>
+      </c>
+      <c r="H15" s="2">
+        <v>45295</v>
+      </c>
+      <c r="I15">
+        <v>10</v>
+      </c>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="2">
+        <v>45296</v>
+      </c>
+      <c r="G16" s="2">
+        <v>45293</v>
+      </c>
+      <c r="H16" s="2">
+        <v>45295</v>
+      </c>
+      <c r="I16">
+        <v>40</v>
+      </c>
+      <c r="J16" t="s">
+        <v>38</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="2">
+        <v>45296</v>
+      </c>
+      <c r="G17" s="2">
+        <v>45293</v>
+      </c>
+      <c r="H17" s="2">
+        <v>45295</v>
+      </c>
+      <c r="I17">
+        <v>10</v>
+      </c>
+      <c r="J17" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="2">
+        <v>45297</v>
+      </c>
+      <c r="G18" s="2">
+        <v>45293</v>
+      </c>
+      <c r="H18" s="2">
+        <v>45295</v>
+      </c>
+      <c r="I18">
+        <v>10</v>
+      </c>
+      <c r="J18" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
         <v>1</v>
       </c>
     </row>
@@ -1152,7 +1328,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -1164,19 +1340,19 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
@@ -1185,7 +1361,7 @@
         <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1193,13 +1369,13 @@
         <v>45293</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1208,22 +1384,22 @@
         <v>13</v>
       </c>
       <c r="G2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="I2">
-        <v>197.5</v>
+        <v>195.5</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="K2">
-        <v>0.9875</v>
+        <v>0.9775</v>
       </c>
       <c r="L2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1231,13 +1407,13 @@
         <v>45293</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1246,22 +1422,22 @@
         <v>14</v>
       </c>
       <c r="G3">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H3">
-        <v>100</v>
+        <v>99.2</v>
       </c>
       <c r="I3">
-        <v>193.5</v>
+        <v>192.5</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="K3">
-        <v>0.9675</v>
+        <v>0.9625</v>
       </c>
       <c r="L3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1269,13 +1445,13 @@
         <v>45293</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1299,7 +1475,7 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1307,13 +1483,13 @@
         <v>45293</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -1337,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1355,7 +1531,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -1367,7 +1543,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1375,13 +1551,13 @@
         <v>45293</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -1392,13 +1568,13 @@
         <v>45293</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1431,74 +1607,74 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_basic_1week_integration/simulation_output/module6/Module6Output_20240102.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module6/Module6Output_20240102.xlsx
@@ -72,49 +72,49 @@
     <t>20240102-PLANT_001-DC_002-MEDIUM-#2</t>
   </si>
   <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-03|net demand for forecast|000021</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000030</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000018</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000022</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000031</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000007</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000019</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000023</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000032</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000026</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000014</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000027</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000015</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000028</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000029</t>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-03|net demand for forecast|000027</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000043</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000028</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000044</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000025</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000029</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000045</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-06|net demand for forecast|000030</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-06|net demand for forecast|000046</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-01|net demand for safety|000007</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000039</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000020</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000040</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000021</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000041</t>
   </si>
   <si>
     <t>MAT_B</t>
@@ -648,13 +648,13 @@
         <v>37</v>
       </c>
       <c r="K2">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9775</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -683,19 +683,19 @@
         <v>45295</v>
       </c>
       <c r="I3">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
         <v>37</v>
       </c>
       <c r="K3">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.9775</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -706,7 +706,7 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
         <v>34</v>
@@ -724,19 +724,19 @@
         <v>45295</v>
       </c>
       <c r="I4">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s">
         <v>37</v>
       </c>
       <c r="K4">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9775</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -747,7 +747,7 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
         <v>34</v>
@@ -765,19 +765,19 @@
         <v>45295</v>
       </c>
       <c r="I5">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
         <v>37</v>
       </c>
       <c r="K5">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9775</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -797,7 +797,7 @@
         <v>35</v>
       </c>
       <c r="F6" s="2">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="G6" s="2">
         <v>45293</v>
@@ -806,19 +806,19 @@
         <v>45295</v>
       </c>
       <c r="I6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J6" t="s">
         <v>37</v>
       </c>
       <c r="K6">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.9775</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -847,30 +847,30 @@
         <v>45295</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J7" t="s">
         <v>37</v>
       </c>
       <c r="K7">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9775</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
         <v>34</v>
@@ -888,19 +888,19 @@
         <v>45295</v>
       </c>
       <c r="I8">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="J8" t="s">
         <v>37</v>
       </c>
       <c r="K8">
-        <v>0.992</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.992</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.9625</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -929,19 +929,19 @@
         <v>45295</v>
       </c>
       <c r="I9">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="J9" t="s">
         <v>37</v>
       </c>
       <c r="K9">
-        <v>0.992</v>
+        <v>0.88</v>
       </c>
       <c r="L9">
-        <v>0.992</v>
+        <v>0.88</v>
       </c>
       <c r="M9">
-        <v>0.9625</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -961,7 +961,7 @@
         <v>35</v>
       </c>
       <c r="F10" s="2">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="G10" s="2">
         <v>45293</v>
@@ -976,13 +976,13 @@
         <v>37</v>
       </c>
       <c r="K10">
-        <v>0.992</v>
+        <v>0.88</v>
       </c>
       <c r="L10">
-        <v>0.992</v>
+        <v>0.88</v>
       </c>
       <c r="M10">
-        <v>0.9625</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1002,7 +1002,7 @@
         <v>35</v>
       </c>
       <c r="F11" s="2">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="G11" s="2">
         <v>45293</v>
@@ -1011,39 +1011,39 @@
         <v>45296</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="J11" t="s">
         <v>37</v>
       </c>
       <c r="K11">
-        <v>0.992</v>
+        <v>0.88</v>
       </c>
       <c r="L11">
-        <v>0.992</v>
+        <v>0.88</v>
       </c>
       <c r="M11">
-        <v>0.9625</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
         <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F12" s="2">
-        <v>45294</v>
+        <v>45292</v>
       </c>
       <c r="G12" s="2">
         <v>45293</v>
@@ -1052,19 +1052,19 @@
         <v>45295</v>
       </c>
       <c r="I12">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="J12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1084,7 +1084,7 @@
         <v>36</v>
       </c>
       <c r="F13" s="2">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="G13" s="2">
         <v>45293</v>
@@ -1093,7 +1093,7 @@
         <v>45295</v>
       </c>
       <c r="I13">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J13" t="s">
         <v>38</v>
@@ -1134,7 +1134,7 @@
         <v>45296</v>
       </c>
       <c r="I14">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J14" t="s">
         <v>38</v>
@@ -1166,7 +1166,7 @@
         <v>36</v>
       </c>
       <c r="F15" s="2">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="G15" s="2">
         <v>45293</v>
@@ -1175,7 +1175,7 @@
         <v>45295</v>
       </c>
       <c r="I15">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="J15" t="s">
         <v>38</v>
@@ -1207,7 +1207,7 @@
         <v>36</v>
       </c>
       <c r="F16" s="2">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="G16" s="2">
         <v>45293</v>
@@ -1216,7 +1216,7 @@
         <v>45295</v>
       </c>
       <c r="I16">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="J16" t="s">
         <v>38</v>
@@ -1257,7 +1257,7 @@
         <v>45295</v>
       </c>
       <c r="I17">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="J17" t="s">
         <v>38</v>
@@ -1289,7 +1289,7 @@
         <v>36</v>
       </c>
       <c r="F18" s="2">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="G18" s="2">
         <v>45293</v>
@@ -1298,7 +1298,7 @@
         <v>45295</v>
       </c>
       <c r="I18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J18" t="s">
         <v>38</v>
@@ -1384,19 +1384,19 @@
         <v>13</v>
       </c>
       <c r="G2">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H2">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="I2">
-        <v>195.5</v>
+        <v>194</v>
       </c>
       <c r="J2">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>0.9775</v>
+        <v>0.97</v>
       </c>
       <c r="L2" t="s">
         <v>45</v>
@@ -1422,19 +1422,19 @@
         <v>14</v>
       </c>
       <c r="G3">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H3">
-        <v>99.2</v>
+        <v>88</v>
       </c>
       <c r="I3">
-        <v>192.5</v>
+        <v>168</v>
       </c>
       <c r="J3">
-        <v>0.992</v>
+        <v>0.88</v>
       </c>
       <c r="K3">
-        <v>0.9625</v>
+        <v>0.84</v>
       </c>
       <c r="L3" t="s">
         <v>45</v>

--- a/e2e_test_output_basic_1week_integration/simulation_output/module6/Module6Output_20240102.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module6/Module6Output_20240102.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="59">
   <si>
     <t>vehicle_uid</t>
   </si>
@@ -72,55 +72,43 @@
     <t>20240102-PLANT_001-DC_002-MEDIUM-#2</t>
   </si>
   <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-03|net demand for forecast|000027</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000043</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000028</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000044</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000025</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000029</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000045</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-06|net demand for forecast|000030</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-06|net demand for forecast|000046</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-01|net demand for safety|000007</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000039</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000020</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000040</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000021</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000041</t>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000038</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-03|net demand for forecast|000043</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000039</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000044</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000022</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000040</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000045</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-06|net demand for forecast|000041</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000034</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000012</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000035</t>
+  </si>
+  <si>
+    <t>MAT_A</t>
   </si>
   <si>
     <t>MAT_B</t>
-  </si>
-  <si>
-    <t>MAT_A</t>
   </si>
   <si>
     <t>PLANT_001</t>
@@ -569,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -624,13 +612,13 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2">
         <v>45294</v>
@@ -642,10 +630,10 @@
         <v>45295</v>
       </c>
       <c r="I2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -654,7 +642,7 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.97</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -665,13 +653,13 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F3" s="2">
         <v>45294</v>
@@ -683,10 +671,10 @@
         <v>45295</v>
       </c>
       <c r="I3">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="J3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -695,7 +683,7 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.97</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -706,13 +694,13 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F4" s="2">
         <v>45295</v>
@@ -724,10 +712,10 @@
         <v>45295</v>
       </c>
       <c r="I4">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -736,7 +724,7 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.97</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -747,29 +735,29 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="2">
+        <v>45295</v>
+      </c>
+      <c r="G5" s="2">
+        <v>45293</v>
+      </c>
+      <c r="H5" s="2">
+        <v>45295</v>
+      </c>
+      <c r="I5">
+        <v>15</v>
+      </c>
+      <c r="J5" t="s">
         <v>33</v>
       </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="2">
-        <v>45295</v>
-      </c>
-      <c r="G5" s="2">
-        <v>45293</v>
-      </c>
-      <c r="H5" s="2">
-        <v>45295</v>
-      </c>
-      <c r="I5">
-        <v>17</v>
-      </c>
-      <c r="J5" t="s">
-        <v>37</v>
-      </c>
       <c r="K5">
         <v>1</v>
       </c>
@@ -777,40 +765,40 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.97</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="2">
+        <v>45295</v>
+      </c>
+      <c r="G6" s="2">
+        <v>45293</v>
+      </c>
+      <c r="H6" s="2">
+        <v>45295</v>
+      </c>
+      <c r="I6">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
         <v>33</v>
       </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="2">
-        <v>45296</v>
-      </c>
-      <c r="G6" s="2">
-        <v>45293</v>
-      </c>
-      <c r="H6" s="2">
-        <v>45295</v>
-      </c>
-      <c r="I6">
-        <v>8</v>
-      </c>
-      <c r="J6" t="s">
-        <v>37</v>
-      </c>
       <c r="K6">
         <v>1</v>
       </c>
@@ -818,24 +806,24 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.97</v>
+        <v>0.9675</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F7" s="2">
         <v>45296</v>
@@ -847,10 +835,10 @@
         <v>45295</v>
       </c>
       <c r="I7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -859,24 +847,24 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.97</v>
+        <v>0.9675</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F8" s="2">
         <v>45296</v>
@@ -888,10 +876,10 @@
         <v>45295</v>
       </c>
       <c r="I8">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -900,7 +888,7 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.97</v>
+        <v>0.9675</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -911,13 +899,13 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F9" s="2">
         <v>45296</v>
@@ -929,19 +917,19 @@
         <v>45295</v>
       </c>
       <c r="I9">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="J9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K9">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.84</v>
+        <v>0.9675</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -952,13 +940,13 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F10" s="2">
         <v>45297</v>
@@ -970,39 +958,39 @@
         <v>45295</v>
       </c>
       <c r="I10">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K10">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.84</v>
+        <v>0.9675</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2">
-        <v>45297</v>
+        <v>45294</v>
       </c>
       <c r="G11" s="2">
         <v>45293</v>
@@ -1011,93 +999,93 @@
         <v>45296</v>
       </c>
       <c r="I11">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="J11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K11">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.84</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
       </c>
       <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
         <v>32</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" s="2">
+        <v>45295</v>
+      </c>
+      <c r="G12" s="2">
+        <v>45293</v>
+      </c>
+      <c r="H12" s="2">
+        <v>45295</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12" t="s">
         <v>34</v>
       </c>
-      <c r="E12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="2">
-        <v>45292</v>
-      </c>
-      <c r="G12" s="2">
-        <v>45293</v>
-      </c>
-      <c r="H12" s="2">
-        <v>45295</v>
-      </c>
-      <c r="I12">
-        <v>60</v>
-      </c>
-      <c r="J12" t="s">
-        <v>37</v>
-      </c>
       <c r="K12">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.84</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="2">
+        <v>45295</v>
+      </c>
+      <c r="G13" s="2">
+        <v>45293</v>
+      </c>
+      <c r="H13" s="2">
+        <v>45295</v>
+      </c>
+      <c r="I13">
+        <v>57</v>
+      </c>
+      <c r="J13" t="s">
         <v>34</v>
       </c>
-      <c r="E13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="2">
-        <v>45294</v>
-      </c>
-      <c r="G13" s="2">
-        <v>45293</v>
-      </c>
-      <c r="H13" s="2">
-        <v>45295</v>
-      </c>
-      <c r="I13">
-        <v>34</v>
-      </c>
-      <c r="J13" t="s">
-        <v>38</v>
-      </c>
       <c r="K13">
         <v>1</v>
       </c>
@@ -1105,211 +1093,6 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="2">
-        <v>45295</v>
-      </c>
-      <c r="G14" s="2">
-        <v>45293</v>
-      </c>
-      <c r="H14" s="2">
-        <v>45296</v>
-      </c>
-      <c r="I14">
-        <v>3</v>
-      </c>
-      <c r="J14" t="s">
-        <v>38</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="2">
-        <v>45295</v>
-      </c>
-      <c r="G15" s="2">
-        <v>45293</v>
-      </c>
-      <c r="H15" s="2">
-        <v>45295</v>
-      </c>
-      <c r="I15">
-        <v>23</v>
-      </c>
-      <c r="J15" t="s">
-        <v>38</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="2">
-        <v>45295</v>
-      </c>
-      <c r="G16" s="2">
-        <v>45293</v>
-      </c>
-      <c r="H16" s="2">
-        <v>45295</v>
-      </c>
-      <c r="I16">
-        <v>11</v>
-      </c>
-      <c r="J16" t="s">
-        <v>38</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="2">
-        <v>45296</v>
-      </c>
-      <c r="G17" s="2">
-        <v>45293</v>
-      </c>
-      <c r="H17" s="2">
-        <v>45295</v>
-      </c>
-      <c r="I17">
-        <v>41</v>
-      </c>
-      <c r="J17" t="s">
-        <v>38</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="2">
-        <v>45296</v>
-      </c>
-      <c r="G18" s="2">
-        <v>45293</v>
-      </c>
-      <c r="H18" s="2">
-        <v>45295</v>
-      </c>
-      <c r="I18">
-        <v>8</v>
-      </c>
-      <c r="J18" t="s">
-        <v>38</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
         <v>1</v>
       </c>
     </row>
@@ -1328,7 +1111,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -1340,19 +1123,19 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
@@ -1361,7 +1144,7 @@
         <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1369,13 +1152,13 @@
         <v>45293</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1384,22 +1167,22 @@
         <v>13</v>
       </c>
       <c r="G2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H2">
         <v>100</v>
       </c>
       <c r="I2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2">
-        <v>0.97</v>
+        <v>0.975</v>
       </c>
       <c r="L2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1407,13 +1190,13 @@
         <v>45293</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1422,22 +1205,22 @@
         <v>14</v>
       </c>
       <c r="G3">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="H3">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="I3">
-        <v>168</v>
+        <v>193.5</v>
       </c>
       <c r="J3">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>0.84</v>
+        <v>0.9675</v>
       </c>
       <c r="L3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1445,13 +1228,13 @@
         <v>45293</v>
       </c>
       <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
         <v>34</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1475,7 +1258,7 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1483,13 +1266,13 @@
         <v>45293</v>
       </c>
       <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
         <v>34</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s">
-        <v>38</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -1513,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1531,7 +1314,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -1543,7 +1326,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1551,13 +1334,13 @@
         <v>45293</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -1568,13 +1351,13 @@
         <v>45293</v>
       </c>
       <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
         <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" t="s">
-        <v>38</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1607,74 +1390,74 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
         <v>55</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>56</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
         <v>58</v>
-      </c>
-      <c r="E2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" t="s">
         <v>55</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>57</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
         <v>58</v>
-      </c>
-      <c r="E3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
